--- a/data/air_info/西安-北京.xlsx
+++ b/data/air_info/西安-北京.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\air_info\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\PycharmProjects\BJUT_dsc\data\air_info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{692AA571-4EF3-4436-8E0C-E7A6277D1EAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A29560A-0221-4AF1-B50B-EF1503849D0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,39 +33,21 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="33">
   <si>
-    <t>行程时间：2 小时 10 分钟</t>
-  </si>
-  <si>
     <t>国航经济舱Airbus A330CA 1206</t>
   </si>
   <si>
-    <t>行程时间：1 小时 55 分钟</t>
-  </si>
-  <si>
     <t>南航经济舱Boeing 737CZ 8822</t>
   </si>
   <si>
     <t>国航经济舱Boeing 737CA 8696</t>
   </si>
   <si>
-    <t>行程时间：2 小时</t>
-  </si>
-  <si>
-    <t>行程时间：2 小时 15 分钟</t>
-  </si>
-  <si>
     <t>海航经济舱Boeing 787HU 7138</t>
   </si>
   <si>
-    <t>行程时间：2 小时 25 分钟</t>
-  </si>
-  <si>
     <t>国航经济舱Airbus A320CA 1232</t>
   </si>
   <si>
-    <t>行程时间：2 小时 20 分钟</t>
-  </si>
-  <si>
     <t>国航经济舱Boeing 737CA 1290</t>
   </si>
   <si>
@@ -75,15 +57,9 @@
     <t>国航经济舱Airbus A321CA 1224</t>
   </si>
   <si>
-    <t>行程时间：2 小时 30 分钟</t>
-  </si>
-  <si>
     <t>国航经济舱Boeing 737MAX 8 PassengerCA 1202</t>
   </si>
   <si>
-    <t>行程时间：2 小时 45 分钟</t>
-  </si>
-  <si>
     <t>国航经济舱Boeing 737CA 1226</t>
   </si>
   <si>
@@ -130,7 +106,30 @@
   </si>
   <si>
     <t>机票价格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 小时 10 分钟</t>
+  </si>
+  <si>
+    <t>1 小时 55 分钟</t>
+  </si>
+  <si>
+    <t>2 小时 15 分钟</t>
+  </si>
+  <si>
+    <t>2 小时 25 分钟</t>
+  </si>
+  <si>
+    <t>2 小时 20 分钟</t>
+  </si>
+  <si>
+    <t>2 小时 30 分钟</t>
+  </si>
+  <si>
+    <t>2 小时 45 分钟</t>
+  </si>
+  <si>
+    <t>2 小时</t>
   </si>
 </sst>
 </file>
@@ -486,7 +485,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -497,30 +496,29 @@
     <col min="4" max="4" width="29.90625" customWidth="1"/>
     <col min="5" max="5" width="35.453125" customWidth="1"/>
     <col min="6" max="6" width="40.7265625" customWidth="1"/>
-    <col min="7" max="7" width="20.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -528,23 +526,22 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D2" s="2">
         <v>0.44444444444444442</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <f ca="1">RANDBETWEEN(2500,3500)</f>
-        <v>3173</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -552,23 +549,22 @@
         <v>0.38541666666666669</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="D3" s="2">
         <v>0.46527777777777779</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G16" ca="1" si="0">RANDBETWEEN(2500,3500)</f>
-        <v>3443</v>
+        <v>3280</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -576,23 +572,22 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D4" s="2">
         <v>0.4861111111111111</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G4">
-        <f t="shared" ca="1" si="0"/>
-        <v>2787</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -600,23 +595,22 @@
         <v>0.4375</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="D5" s="2">
         <v>0.53125</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G5">
-        <f t="shared" ca="1" si="0"/>
-        <v>2627</v>
+        <v>2966</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -624,23 +618,22 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="D6" s="2">
         <v>0.55902777777777779</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G6">
-        <f t="shared" ca="1" si="0"/>
-        <v>2834</v>
+        <v>3480</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -648,23 +641,22 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="D7" s="2">
         <v>0.61805555555555558</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G7">
-        <f t="shared" ca="1" si="0"/>
-        <v>3215</v>
+        <v>3368</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -672,23 +664,22 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="D8" s="2">
         <v>0.70486111111111116</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G8">
-        <f t="shared" ca="1" si="0"/>
-        <v>2987</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -696,23 +687,22 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="D9" s="2">
         <v>0.73958333333333337</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="G9">
-        <f t="shared" ca="1" si="0"/>
-        <v>2807</v>
+        <v>3287</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -720,23 +710,22 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D10" s="2">
         <v>0.83333333333333337</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G10">
-        <f t="shared" ca="1" si="0"/>
-        <v>2838</v>
+        <v>3154</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -744,23 +733,22 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D11" s="2">
         <v>0.875</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G11">
-        <f t="shared" ca="1" si="0"/>
-        <v>3255</v>
+        <v>2586</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -768,23 +756,22 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D12" s="2">
         <v>0.875</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G12">
-        <f t="shared" ca="1" si="0"/>
-        <v>2584</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -792,23 +779,22 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="D13" s="2">
         <v>0.87152777777777779</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G13">
-        <f t="shared" ca="1" si="0"/>
-        <v>3122</v>
+        <v>3403</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -816,23 +802,22 @@
         <v>0.8125</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="D14" s="2">
         <v>0.91319444444444442</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G14">
-        <f t="shared" ca="1" si="0"/>
-        <v>3454</v>
+        <v>3054</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -840,23 +825,22 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="D15" s="2">
         <v>0.91666666666666663</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G15">
-        <f t="shared" ca="1" si="0"/>
-        <v>2541</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -864,23 +848,22 @@
         <v>0.85416666666666663</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="D16" s="2">
         <v>0.95486111111111116</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="G16">
-        <f t="shared" ca="1" si="0"/>
-        <v>2740</v>
+        <v>2922</v>
       </c>
     </row>
     <row r="18" spans="4:4" x14ac:dyDescent="0.25">
